--- a/用例数据/深银行/普通交易/卖出/测试结果.xlsx
+++ b/用例数据/深银行/普通交易/卖出/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="354">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -546,12 +546,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>005_006_005</t>
-  </si>
-  <si>
-    <t>银行间互联互通（通银行间方向）现券交易交收失败</t>
-  </si>
-  <si>
     <t>1.0000000000</t>
   </si>
   <si>
@@ -1015,12 +1009,6 @@
   </si>
   <si>
     <t>000007069963</t>
-  </si>
-  <si>
-    <t>30150337</t>
-  </si>
-  <si>
-    <t>000007069964</t>
   </si>
   <si>
     <t>30150338</t>
@@ -1421,24 +1409,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI6"/>
+  <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,12 +1847,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>140</v>
@@ -1892,10 +1882,10 @@
         <v>147</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>148</v>
@@ -1916,25 +1906,25 @@
         <v>152</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>156</v>
@@ -2024,7 +2014,7 @@
         <v>165</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>156</v>
@@ -2081,7 +2071,7 @@
         <v>163</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>164</v>
@@ -2189,12 +2179,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>140</v>
@@ -2224,10 +2214,10 @@
         <v>147</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>148</v>
@@ -2257,16 +2247,16 @@
         <v>155</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>156</v>
@@ -2356,7 +2346,7 @@
         <v>165</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>156</v>
@@ -2413,7 +2403,7 @@
         <v>163</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>164</v>
@@ -2521,12 +2511,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>140</v>
@@ -2556,10 +2546,10 @@
         <v>147</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>148</v>
@@ -2580,25 +2570,25 @@
         <v>152</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>155</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>156</v>
@@ -2613,7 +2603,7 @@
         <v>156</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>156</v>
@@ -2685,7 +2675,7 @@
         <v>163</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>165</v>
@@ -2738,9 +2728,6 @@
       <c r="CB4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CC4" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="CD4" s="1" t="s">
         <v>156</v>
       </c>
@@ -2751,7 +2738,7 @@
         <v>163</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>164</v>
@@ -2790,7 +2777,7 @@
         <v>164</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>156</v>
@@ -2859,342 +2846,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CR5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DG5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DP5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DQ5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DT5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DV5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DW5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DY5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EC5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="EF5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EI5" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3210,12 +2862,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3229,10 +2881,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -3241,43 +2893,43 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>2</v>
@@ -3292,190 +2944,190 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>254</v>
-      </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
@@ -3495,31 +3147,31 @@
         <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>163</v>
@@ -3555,7 +3207,7 @@
         <v>161</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>163</v>
@@ -3678,13 +3330,13 @@
         <v>165</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>163</v>
@@ -3735,7 +3387,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>142</v>
       </c>
@@ -3755,31 +3407,31 @@
         <v>147</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>163</v>
@@ -3815,7 +3467,7 @@
         <v>161</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>163</v>
@@ -3938,13 +3590,13 @@
         <v>165</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>163</v>
@@ -3995,9 +3647,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4012,18 +3664,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4032,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4041,7 +3693,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -4065,7 +3717,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>21</v>
@@ -4092,7 +3744,7 @@
         <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>37</v>
@@ -4131,7 +3783,7 @@
         <v>9</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>47</v>
@@ -4146,7 +3798,7 @@
         <v>65</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>68</v>
@@ -4155,52 +3807,52 @@
         <v>77</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>94</v>
@@ -4260,18 +3912,18 @@
         <v>20</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>155</v>
@@ -4301,16 +3953,16 @@
         <v>149</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>156</v>
@@ -4346,10 +3998,10 @@
         <v>165</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>156</v>
@@ -4376,7 +4028,7 @@
         <v>163</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>163</v>
@@ -4388,7 +4040,7 @@
         <v>167</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>168</v>
@@ -4409,10 +4061,10 @@
         <v>155</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>156</v>
@@ -4463,15 +4115,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>155</v>
@@ -4501,16 +4153,16 @@
         <v>149</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>156</v>
@@ -4546,10 +4198,10 @@
         <v>165</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>156</v>
@@ -4576,7 +4228,7 @@
         <v>163</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>163</v>
@@ -4588,7 +4240,7 @@
         <v>167</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>168</v>
@@ -4609,10 +4261,10 @@
         <v>155</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>156</v>
@@ -4663,15 +4315,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>155</v>
@@ -4701,7 +4353,7 @@
         <v>149</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>168</v>
@@ -4710,7 +4362,7 @@
         <v>161</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>156</v>
@@ -4749,7 +4401,7 @@
         <v>156</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>156</v>
@@ -4776,7 +4428,7 @@
         <v>163</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>163</v>
@@ -4788,7 +4440,7 @@
         <v>167</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>168</v>
@@ -4809,10 +4461,10 @@
         <v>155</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>156</v>
@@ -4863,8 +4515,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4875,21 +4527,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>132</v>
@@ -4907,28 +4559,28 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>25</v>
@@ -4952,25 +4604,25 @@
         <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>59</v>
@@ -4979,60 +4631,60 @@
         <v>1</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>166</v>
@@ -5050,13 +4702,13 @@
         <v>151</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>168</v>
@@ -5077,7 +4729,7 @@
         <v>168</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>168</v>
@@ -5092,7 +4744,7 @@
         <v>168</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>168</v>
@@ -5104,7 +4756,7 @@
         <v>164</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>166</v>
@@ -5116,7 +4768,7 @@
         <v>164</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>168</v>
@@ -5128,7 +4780,7 @@
         <v>168</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>155</v>
@@ -5140,15 +4792,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>166</v>
@@ -5166,13 +4818,13 @@
         <v>151</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>168</v>
@@ -5193,7 +4845,7 @@
         <v>168</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>168</v>
@@ -5208,7 +4860,7 @@
         <v>168</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>168</v>
@@ -5220,7 +4872,7 @@
         <v>164</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>166</v>
@@ -5232,7 +4884,7 @@
         <v>164</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>168</v>
@@ -5244,7 +4896,7 @@
         <v>168</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>155</v>
@@ -5256,15 +4908,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>166</v>
@@ -5282,10 +4934,10 @@
         <v>151</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>168</v>
@@ -5309,7 +4961,7 @@
         <v>168</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>168</v>
@@ -5324,7 +4976,7 @@
         <v>168</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>168</v>
@@ -5336,7 +4988,7 @@
         <v>164</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>166</v>
@@ -5348,7 +5000,7 @@
         <v>164</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>168</v>
@@ -5360,7 +5012,7 @@
         <v>168</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>155</v>
@@ -5372,12 +5024,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>155</v>
@@ -5392,13 +5044,13 @@
         <v>151</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>168</v>
@@ -5437,7 +5089,7 @@
         <v>168</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>168</v>
@@ -5449,7 +5101,7 @@
         <v>164</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>166</v>
@@ -5464,7 +5116,7 @@
         <v>164</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>168</v>
@@ -5476,7 +5128,7 @@
         <v>168</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>155</v>
@@ -5488,12 +5140,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>155</v>
@@ -5508,13 +5160,13 @@
         <v>151</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>168</v>
@@ -5553,7 +5205,7 @@
         <v>168</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>168</v>
@@ -5565,7 +5217,7 @@
         <v>164</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>166</v>
@@ -5580,7 +5232,7 @@
         <v>164</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>168</v>
@@ -5592,7 +5244,7 @@
         <v>168</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>155</v>
@@ -5604,12 +5256,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>155</v>
@@ -5624,13 +5276,13 @@
         <v>151</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>168</v>
@@ -5669,7 +5321,7 @@
         <v>168</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>168</v>
@@ -5681,7 +5333,7 @@
         <v>164</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>166</v>
@@ -5696,7 +5348,7 @@
         <v>164</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>168</v>
@@ -5708,7 +5360,7 @@
         <v>168</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>155</v>
@@ -5720,8 +5372,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
